--- a/sitemap.xlsx
+++ b/sitemap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahleum\Desktop\mcdonalds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85694434-E791-471C-9ADA-B52B01255E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B50608-F083-40A3-89D0-89068DD2B667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="2520" windowWidth="21990" windowHeight="14415" xr2:uid="{FEC76343-EE26-48EA-9A5D-0FF5414E63C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FEC76343-EE26-48EA-9A5D-0FF5414E63C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,6 +429,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -445,9 +448,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -767,7 +767,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:F16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -793,10 +793,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -807,8 +807,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
@@ -817,8 +817,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
@@ -827,8 +827,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
@@ -837,8 +837,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="2" t="s">
         <v>31</v>
       </c>
@@ -847,8 +847,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
@@ -857,8 +857,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -867,8 +867,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -879,8 +879,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
@@ -889,8 +889,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
@@ -899,8 +899,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -911,8 +911,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
@@ -921,8 +921,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
@@ -931,8 +931,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -943,8 +943,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
@@ -959,8 +959,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="2" t="s">
         <v>22</v>
       </c>
@@ -969,8 +969,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="10"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="2" t="s">
         <v>23</v>
       </c>
@@ -979,8 +979,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -991,8 +991,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1023,14 +1023,14 @@
       <c r="D28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12" t="s">
+      <c r="F28" s="6"/>
+      <c r="G28" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="12"/>
+      <c r="H28" s="6"/>
       <c r="I28" s="2" t="s">
         <v>11</v>
       </c>
@@ -1044,14 +1044,14 @@
       <c r="A32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12" t="s">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="12"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
@@ -1062,14 +1062,14 @@
       <c r="A36" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12" t="s">
+      <c r="C36" s="6"/>
+      <c r="D36" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="12"/>
+      <c r="E36" s="6"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
@@ -1077,22 +1077,22 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12" t="s">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12" t="s">
+      <c r="D39" s="6"/>
+      <c r="E39" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12" t="s">
+      <c r="F39" s="6"/>
+      <c r="G39" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H39" s="12"/>
+      <c r="H39" s="6"/>
     </row>
     <row r="41" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
@@ -1109,6 +1109,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:A20"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="E39:F39"/>
@@ -1119,12 +1125,6 @@
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
